--- a/public/FileImportMilitary/DSDK.xlsx
+++ b/public/FileImportMilitary/DSDK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tai lieu\NCKH_K60\TaiLieuTestCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tai lieu\NCKH_K60\File_Code\NCKH\Backend_NCKH\public\FileImportMilitary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69CF377-FA9D-49AC-9A94-E78291B4EC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18CFBD2-67CC-4983-93B5-F8F2E6E146C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>stt</t>
   </si>
@@ -48,16 +48,88 @@
     <t>mã sinh viên</t>
   </si>
   <si>
-    <t>45/DK</t>
-  </si>
-  <si>
-    <t>Thanh Hóa</t>
-  </si>
-  <si>
-    <t>CA Thanh hóa</t>
-  </si>
-  <si>
-    <t>56/DK</t>
+    <t>59/2012/CN-ĐK</t>
+  </si>
+  <si>
+    <t>xã Minh Thanh, Sơn Dương, Tuyên Quang</t>
+  </si>
+  <si>
+    <t>xã Minh Thanh</t>
+  </si>
+  <si>
+    <t>08/2020/CN-ĐK</t>
+  </si>
+  <si>
+    <t>xã Phương Khoan</t>
+  </si>
+  <si>
+    <t>Thống Nhất, Phương Khoan, Sông Lô, Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>69/2019/CN-ĐK</t>
+  </si>
+  <si>
+    <t>xã Thành Vinh, Thạch Thành, Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Thành Vinh, Thạch Thành, Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Vũ hòa</t>
+  </si>
+  <si>
+    <t>Vũ Hòa</t>
+  </si>
+  <si>
+    <t>04/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>02/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Láng Hạ, Đống Đa, Hà Nội</t>
+  </si>
+  <si>
+    <t>P9, ngách 99B Tập thể Đại học GTVT</t>
+  </si>
+  <si>
+    <t>52/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>UBND Thị trấn Hồ</t>
+  </si>
+  <si>
+    <t>Lạc Thổ Nam</t>
+  </si>
+  <si>
+    <t>xã Đông Mỹ, Thanh Trì, Hà Nội</t>
+  </si>
+  <si>
+    <t>Thôn 1, xã Đông Mỹ, Thanh Trì, Hà Nội</t>
+  </si>
+  <si>
+    <t>/2019/CN-ĐK</t>
+  </si>
+  <si>
+    <t>55/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Ấp Đông Côi, Thị trấn Hồ, Thuận Thành, Bắc Ninh</t>
+  </si>
+  <si>
+    <t>02/2012/CN-ĐK</t>
+  </si>
+  <si>
+    <t>xã Hưng Thịnh, Bình Giang, Hải Dương</t>
+  </si>
+  <si>
+    <t>Hưng Thịnh, Bình Giang, Hải Dương</t>
+  </si>
+  <si>
+    <t>01/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>xã Vạn Điểm, Thường Tín, Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -377,18 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.4140625" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" customWidth="1"/>
+    <col min="4" max="4" width="38.08203125" customWidth="1"/>
+    <col min="5" max="5" width="46.1640625" customWidth="1"/>
     <col min="6" max="6" width="19.4140625" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
   </cols>
@@ -424,90 +496,528 @@
         <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>43748</v>
+        <v>43207</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="2">
-        <v>44844</v>
+        <v>44672</v>
       </c>
       <c r="G2">
-        <v>191204225</v>
+        <v>191240003</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>43779</v>
+        <v>43739</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2">
-        <v>44854</v>
+        <v>44672</v>
       </c>
       <c r="G3">
-        <v>191204228</v>
+        <v>191201705</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>43748</v>
+        <v>43200</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
-        <v>44844</v>
+        <v>44672</v>
       </c>
       <c r="G4">
-        <v>191204229</v>
+        <v>191244077</v>
       </c>
       <c r="I4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44672</v>
+      </c>
+      <c r="G5">
+        <v>191213574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44672</v>
+      </c>
+      <c r="G6">
+        <v>191240086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44672</v>
+      </c>
+      <c r="G7">
+        <v>191212181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
-        <v>43747</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43689</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44672</v>
+      </c>
+      <c r="G8">
+        <v>191200132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44672</v>
+      </c>
+      <c r="G9">
+        <v>191202189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>44844</v>
-      </c>
-      <c r="G5">
-        <v>191204220</v>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43205</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44672</v>
+      </c>
+      <c r="G10">
+        <v>191202433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44672</v>
+      </c>
+      <c r="G11">
+        <v>191200179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/public/FileImportMilitary/DSDK.xlsx
+++ b/public/FileImportMilitary/DSDK.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tai lieu\NCKH_K60\File_Code\NCKH\Backend_NCKH\public\FileImportMilitary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18CFBD2-67CC-4983-93B5-F8F2E6E146C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
   <si>
     <t>stt</t>
   </si>
@@ -130,17 +129,251 @@
   </si>
   <si>
     <t>xã Vạn Điểm, Thường Tín, Hà Nội</t>
+  </si>
+  <si>
+    <t>xã Sơn Dương, Lâm Thao, Phú Thọ</t>
+  </si>
+  <si>
+    <t>48/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>25/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>xã Thái Hưng, Hưng Hà, Thái Bình</t>
+  </si>
+  <si>
+    <t>thôn Chiềng, xã Thái Hưng, Hưng Hà, Thái Bình</t>
+  </si>
+  <si>
+    <t>Thọ An, Đan Phượng, Hà Nội</t>
+  </si>
+  <si>
+    <t>Cụm 1, xã Thọ An, Đan Phượng, Hà Nội</t>
+  </si>
+  <si>
+    <t>59/2015/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Đông Ngân, Đông Hội, Đông Anh</t>
+  </si>
+  <si>
+    <t>2015/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Kim Chung, Đông Anh, Hà Nội</t>
+  </si>
+  <si>
+    <t>Đội 3, Thôn Nhuế, Đông Anh, Hà Nội</t>
+  </si>
+  <si>
+    <t>193/2017/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Sơn Thủy, Thanh Thủy, Phú Thọ</t>
+  </si>
+  <si>
+    <t>K1, Sơn Thủy, Thanh Thủy, Phú Thọ</t>
+  </si>
+  <si>
+    <t>18/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Quỳnh Giao, Quỳnh Thụ, Thái Bình</t>
+  </si>
+  <si>
+    <t>03/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Phường Ba Đình, Bỉm Sơn, Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Khu 4, Ba Đình, Bỉm Sơn, Thanh Hóa</t>
+  </si>
+  <si>
+    <t>116/GCN</t>
+  </si>
+  <si>
+    <t>Hợp Thanh, Mỹ Đức, Hà Nội</t>
+  </si>
+  <si>
+    <t>20/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Cổ Dũng, Kim Thành, Hải Dương</t>
+  </si>
+  <si>
+    <t>Thôn Bắc, Cổ Dũng, Kim Thành, Hải Dương</t>
+  </si>
+  <si>
+    <t>54/2012/CN-ĐK</t>
+  </si>
+  <si>
+    <t>xã An Tường, TP.Tuyên Quang, Tuyên Quang</t>
+  </si>
+  <si>
+    <t>Thôn 9, An Tường, Tuyên Quang, Tuyên Quang</t>
+  </si>
+  <si>
+    <t>205/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>xã Thiêu Cầu, Cẩm Xuyên, Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Thiêu Cầu, Cẩm Xuyên, Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Hòa Sơn, Đô Lương, Nghệ An</t>
+  </si>
+  <si>
+    <t>53/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Diễn Trung, Diễn Châu, Nghệ An</t>
+  </si>
+  <si>
+    <t>05/22018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Tân Lập, Đan Phượng, Hà Nội</t>
+  </si>
+  <si>
+    <t>Cụm 1, Tân Lập, Đan Phượng, Hà Nội</t>
+  </si>
+  <si>
+    <t>14/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Nam Giang, Nam Đàn, Nghệ An</t>
+  </si>
+  <si>
+    <t>Xóm 12, Nam Giang, Nam Đàn, Nghệ An</t>
+  </si>
+  <si>
+    <t>65/2019/CN-ĐK</t>
+  </si>
+  <si>
+    <t>P.Ngô Quyền, TP.Bắc Giang, T.Bắc Giang</t>
+  </si>
+  <si>
+    <t>P.Ngô Quyền, TP.bắc Giang, T.Bắc Giang</t>
+  </si>
+  <si>
+    <t>42/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Hạ Mỗ, Đan Phượng, Hà Nội</t>
+  </si>
+  <si>
+    <t>Cụm 8, Hạ Mỗ, Đan Phượng, Hà Nội</t>
+  </si>
+  <si>
+    <t>28/2012/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Làng Phan, Hợp Thành, Yên Thành, Nghệ An</t>
+  </si>
+  <si>
+    <t>Hợp Thành, Yên Thành, Nghệ An</t>
+  </si>
+  <si>
+    <t>630/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Phú Nam An, Chương Mỹ, Hà Nội</t>
+  </si>
+  <si>
+    <t>23/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Sài Sơn, Quốc Oai, Hà Nội</t>
+  </si>
+  <si>
+    <t>Sài Khê, Sài Sơn, Quốc Oai, Hà Nội</t>
+  </si>
+  <si>
+    <t>16/ĐK</t>
+  </si>
+  <si>
+    <t>P.Bắc Cường, TP.Lào Cai, T.Lào Cai</t>
+  </si>
+  <si>
+    <t>Tổ 20, P.Bắc Cường, TP.Lào Cai, T.Lào Cai</t>
+  </si>
+  <si>
+    <t>33/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>35/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Thanh Xuân Trung, Thanh Xuân, Hà Nội</t>
+  </si>
+  <si>
+    <t>Trâu Quỳ, Gia Lâm, Hà Nội</t>
+  </si>
+  <si>
+    <t>Trâu Quỳ, Gia Lâm, hà Nội</t>
+  </si>
+  <si>
+    <t>28/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>P.Lê Thanh Nghị, TP.Hải Dương, T.Hải Dương</t>
+  </si>
+  <si>
+    <t>42 Lê Thánh Tông, P.Lê Thanh Nghị, Tp.Hải Dương, T.Hải Dương</t>
+  </si>
+  <si>
+    <t>P.Xuân Đỉnh, Bắc Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>TDP Cáo Đỉnh 1, P.Xuân Đỉnh, Bắc từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>01/2017/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Thái Hòa, Ba Vì, Hà Nội</t>
+  </si>
+  <si>
+    <t>79/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>P.Đại Kim, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>Tổ 25A, Đại Kim, Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>23/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Đông Minh, Khoái Châu, Hưng Yên</t>
+  </si>
+  <si>
+    <t>836/2018/CN-ĐK</t>
+  </si>
+  <si>
+    <t>Thanh Văn, Thanh Chương, Nghệ An</t>
+  </si>
+  <si>
+    <t>Xóm 5, Thanh Văn, Thanh Chương, Nghệ An</t>
+  </si>
+  <si>
+    <t>xã Đông Ninh, Khoái Châu, Hưng Yên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,7 +404,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,24 +681,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" customWidth="1"/>
-    <col min="4" max="4" width="38.08203125" customWidth="1"/>
-    <col min="5" max="5" width="46.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.4140625" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="38.08984375" customWidth="1"/>
+    <col min="5" max="5" width="54.08984375" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,13 +738,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="2">
-        <v>44672</v>
+        <v>43723</v>
       </c>
       <c r="G2">
         <v>191240003</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -528,13 +761,13 @@
         <v>12</v>
       </c>
       <c r="F3" s="2">
-        <v>44672</v>
+        <v>43723</v>
       </c>
       <c r="G3">
         <v>191201705</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -551,7 +784,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="2">
-        <v>44672</v>
+        <v>43723</v>
       </c>
       <c r="G4">
         <v>191244077</v>
@@ -559,7 +792,7 @@
       <c r="I4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -576,13 +809,13 @@
         <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>44672</v>
+        <v>43723</v>
       </c>
       <c r="G5">
         <v>191213574</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -599,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="2">
-        <v>44672</v>
+        <v>43723</v>
       </c>
       <c r="G6">
         <v>191240086</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -622,13 +855,13 @@
         <v>24</v>
       </c>
       <c r="F7" s="2">
-        <v>44672</v>
+        <v>43723</v>
       </c>
       <c r="G7">
         <v>191212181</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -645,13 +878,13 @@
         <v>26</v>
       </c>
       <c r="F8" s="2">
-        <v>44672</v>
+        <v>43723</v>
       </c>
       <c r="G8">
         <v>191200132</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -668,13 +901,13 @@
         <v>29</v>
       </c>
       <c r="F9" s="2">
-        <v>44672</v>
+        <v>43723</v>
       </c>
       <c r="G9">
         <v>191202189</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -691,13 +924,13 @@
         <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>44672</v>
+        <v>43723</v>
       </c>
       <c r="G10">
         <v>191202433</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -714,308 +947,848 @@
         <v>34</v>
       </c>
       <c r="F11" s="2">
-        <v>44672</v>
+        <v>43723</v>
       </c>
       <c r="G11">
         <v>191200179</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43160</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G12">
+        <v>191201580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43197</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G13">
+        <v>191203607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43197</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G14">
+        <v>191200232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43195</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G15">
+        <v>191200238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43194</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G16">
+        <v>191200274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2">
+        <v>42826</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G17">
+        <v>191201589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G18">
+        <v>191203626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43220</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G19">
+        <v>191204134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43200</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G20">
+        <v>191200325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G21">
+        <v>191202469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43205</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G22">
+        <v>191201402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G23">
+        <v>191204640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2">
+        <v>43200</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G24">
+        <v>191214460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43203</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G25">
+        <v>191214462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43194</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G26">
+        <v>191200413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43212</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G27">
+        <v>191204471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="2">
+        <v>43556</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G28">
+        <v>191202046</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43195</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G29">
+        <v>191210466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G30">
+        <v>191204476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43197</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G31">
+        <v>191200489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43191</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G32">
+        <v>191210502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="2">
+        <v>43698</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G33">
+        <v>191201381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G34">
+        <v>191200537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43197</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G35">
+        <v>191210564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="2">
+        <v>43205</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G36">
+        <v>191212519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2">
+        <v>43191</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G37">
+        <v>191210593</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="2">
+        <v>42828</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G38">
+        <v>191200643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G39">
+        <v>191200656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="2">
+        <v>43197</v>
+      </c>
+      <c r="D40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G40">
+        <v>191212716</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="2">
+        <v>43723</v>
+      </c>
+      <c r="G41">
+        <v>191204516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>

--- a/public/FileImportMilitary/DSDK.xlsx
+++ b/public/FileImportMilitary/DSDK.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tai lieu\NCKH_K60\File_Code\NCKH\Backend_NCKH\public\FileImportMilitary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NCKH_Backend\public\FileImportMilitary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18CFBD2-67CC-4983-93B5-F8F2E6E146C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
   <si>
     <t>stt</t>
   </si>
@@ -130,19 +129,211 @@
   </si>
   <si>
     <t>xã Vạn Điểm, Thường Tín, Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông Đồng Châu Nội </t>
+  </si>
+  <si>
+    <t>Xã Đông Minh</t>
+  </si>
+  <si>
+    <t>49/201/CN-DK</t>
+  </si>
+  <si>
+    <t>Yên Thị - Tiến Thịnh - Mê Linh - Hà Nội</t>
+  </si>
+  <si>
+    <t>Tiến Thịnh - Mê Linh - Hà Nội</t>
+  </si>
+  <si>
+    <t>TDP Viện 4 - Cổ Nhuế 2</t>
+  </si>
+  <si>
+    <t>Phường Cổ Nhuế 2</t>
+  </si>
+  <si>
+    <t>Xóm 4 xã Hải Phương</t>
+  </si>
+  <si>
+    <t>Xã Hải Phương - Huyện Hải Hậu - Tỉnh Nam Định</t>
+  </si>
+  <si>
+    <t>Hồ Tùng Mậu -Hưng Yên</t>
+  </si>
+  <si>
+    <t>Hồ Tùng Mậu</t>
+  </si>
+  <si>
+    <t>Thôn Hữu Nghị - Thị Trấn PT</t>
+  </si>
+  <si>
+    <t>Thị trấn Phong Thổ - Huyện Phong Thổ - Lai Châu</t>
+  </si>
+  <si>
+    <t>Xã Giao Thịnh - Giao Thủy - Nam Định</t>
+  </si>
+  <si>
+    <t>Giao Thịnh - Giao Thủy - Nam Định</t>
+  </si>
+  <si>
+    <t>xã Kinh Kệ - Lâm Thao - Phú Thọ</t>
+  </si>
+  <si>
+    <t>Xã Thái Đô</t>
+  </si>
+  <si>
+    <t>Thái Đô - Thái Thụy - Thái Bình</t>
+  </si>
+  <si>
+    <t>Xã Nghĩa Bình</t>
+  </si>
+  <si>
+    <t>Nghĩa Bình - Nghĩa Hưng - Nam Định</t>
+  </si>
+  <si>
+    <t>Xã Yên Bình</t>
+  </si>
+  <si>
+    <t>Yên Bình - Ý Yên Nam Định</t>
+  </si>
+  <si>
+    <t>Xã Nghĩa Trung</t>
+  </si>
+  <si>
+    <t>Xã Nghĩa Trung - Nghĩa Hưng - Nam Định</t>
+  </si>
+  <si>
+    <t>Xã Vũ Phúc - Thái Bình</t>
+  </si>
+  <si>
+    <t>Thôn Thanh Miếu - xã Vũ Phúc</t>
+  </si>
+  <si>
+    <t>Xã Nghĩa Hồng</t>
+  </si>
+  <si>
+    <t>Nghĩa Hồng - Nghĩa Hưng - Nam Định</t>
+  </si>
+  <si>
+    <t>Nghĩa Đô</t>
+  </si>
+  <si>
+    <t>Tổ 1 Nghĩa Đô, Cầu Giấy, Hà Nội</t>
+  </si>
+  <si>
+    <t>Phường Đội Cấn</t>
+  </si>
+  <si>
+    <t>Đội Cấn, Ba Đình, Hà Nội</t>
+  </si>
+  <si>
+    <t>Xã Bình Khê - Đông Triều - Quảng Ninh</t>
+  </si>
+  <si>
+    <t>Bình Khê- Đông Chiều- Quảng Ninh</t>
+  </si>
+  <si>
+    <t>Phường Nguyễn Thái Học- Yên Bái</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Học - Yên Bái</t>
+  </si>
+  <si>
+    <t>Phương Tú - Ứng Hòa- Hà Nội</t>
+  </si>
+  <si>
+    <t>Phường Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc - Ba Đình -Hà nội</t>
+  </si>
+  <si>
+    <t>Phường Xuân Khanh, Sơn Tây, Hà Nội</t>
+  </si>
+  <si>
+    <t>Số 20/160 đường Đá Bạc, XK, ST</t>
+  </si>
+  <si>
+    <t>11/CN-DK</t>
+  </si>
+  <si>
+    <t>268/CN-DK</t>
+  </si>
+  <si>
+    <t>66/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>07/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>27/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>03/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>20/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>146/CN-DK</t>
+  </si>
+  <si>
+    <t>12/CN-DK</t>
+  </si>
+  <si>
+    <t>47/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>11/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>16/CN-DK</t>
+  </si>
+  <si>
+    <t>10/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>63/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>04/2019/CN-DK</t>
+  </si>
+  <si>
+    <t>521/CN-DK</t>
+  </si>
+  <si>
+    <t>60/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>15/CD-DK</t>
+  </si>
+  <si>
+    <t>19/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>Xã Liêm Tuyết</t>
+  </si>
+  <si>
+    <t>Liêm Tuyết- Quốc Oai - Hà Nội</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,7 +344,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,17 +352,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,31 +658,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" customWidth="1"/>
-    <col min="4" max="4" width="38.08203125" customWidth="1"/>
-    <col min="5" max="5" width="46.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.4140625" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -488,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -511,7 +721,7 @@
         <v>191240003</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -534,7 +744,7 @@
         <v>191201705</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -559,7 +769,7 @@
       <c r="I4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -582,7 +792,7 @@
         <v>191213574</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -605,7 +815,7 @@
         <v>191240086</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -628,7 +838,7 @@
         <v>191212181</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -651,7 +861,7 @@
         <v>191200132</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -674,7 +884,7 @@
         <v>191202189</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -697,7 +907,7 @@
         <v>191202433</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -720,305 +930,693 @@
         <v>191200179</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="2">
+        <v>43199</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G42" s="4">
+        <v>191203757</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43191</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G43" s="4">
+        <v>191200846</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43191</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G44" s="4">
+        <v>191200847</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43191</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G45" s="4">
+        <v>191210859</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G46" s="4">
+        <v>191203366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43192</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G47" s="4">
+        <v>191202730</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="2">
+        <v>43680</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G48" s="4">
+        <v>191200882</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="2">
+        <v>43191</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G49" s="4">
+        <v>191203380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="2">
+        <v>43160</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G50" s="4">
+        <v>191201676</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="2">
+        <v>43202</v>
+      </c>
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G51" s="4">
+        <v>191203828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="2">
+        <v>43191</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G52" s="4">
+        <v>191203414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="2">
+        <v>43191</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G53" s="4">
+        <v>191203397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="2">
+        <v>43191</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G54" s="4">
+        <v>191203425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G55" s="4">
+        <v>191203839</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="2">
+        <v>43191</v>
+      </c>
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G56" s="4">
+        <v>191213451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="2">
+        <v>43191</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G57" s="4">
+        <v>191201043</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="2">
+        <v>43197</v>
+      </c>
+      <c r="D58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G58" s="4">
+        <v>191211047</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G59" s="4">
+        <v>191201953</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="2">
+        <v>43233</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G60" s="4">
+        <v>191211531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="2">
+        <v>43191</v>
+      </c>
+      <c r="D61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G61" s="4">
+        <v>191201082</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="2">
+        <v>43197</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G62" s="4">
+        <v>191211102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
+      <c r="B63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="2">
+        <v>44686</v>
+      </c>
+      <c r="G63" s="4">
+        <v>191201161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/FileImportMilitary/DSDK.xlsx
+++ b/public/FileImportMilitary/DSDK.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="175">
   <si>
     <t>stt</t>
   </si>
@@ -363,19 +363,211 @@
   </si>
   <si>
     <t>xã Đông Ninh, Khoái Châu, Hưng Yên</t>
+  </si>
+  <si>
+    <t>268/CN-DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thông Đồng Châu Nội </t>
+  </si>
+  <si>
+    <t>Xã Đông Minh</t>
+  </si>
+  <si>
+    <t>49/201/CN-DK</t>
+  </si>
+  <si>
+    <t>Yên Thị - Tiến Thịnh - Mê Linh - Hà Nội</t>
+  </si>
+  <si>
+    <t>Tiến Thịnh - Mê Linh - Hà Nội</t>
+  </si>
+  <si>
+    <t>11/CN-DK</t>
+  </si>
+  <si>
+    <t>Xã Liêm Tuyết</t>
+  </si>
+  <si>
+    <t>Liêm Tuyết- Quốc Oai - Hà Nội</t>
+  </si>
+  <si>
+    <t>07/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>TDP Viện 4 - Cổ Nhuế 2</t>
+  </si>
+  <si>
+    <t>Phường Cổ Nhuế 2</t>
+  </si>
+  <si>
+    <t>66/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>Xóm 4 xã Hải Phương</t>
+  </si>
+  <si>
+    <t>Xã Hải Phương - Huyện Hải Hậu - Tỉnh Nam Định</t>
+  </si>
+  <si>
+    <t>27/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>Hồ Tùng Mậu -Hưng Yên</t>
+  </si>
+  <si>
+    <t>Hồ Tùng Mậu</t>
+  </si>
+  <si>
+    <t>03/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>Thị trấn Phong Thổ - Huyện Phong Thổ - Lai Châu</t>
+  </si>
+  <si>
+    <t>Thôn Hữu Nghị - Thị Trấn PT</t>
+  </si>
+  <si>
+    <t>20/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>Xã Giao Thịnh - Giao Thủy - Nam Định</t>
+  </si>
+  <si>
+    <t>Giao Thịnh - Giao Thủy - Nam Định</t>
+  </si>
+  <si>
+    <t>146/CN-DK</t>
+  </si>
+  <si>
+    <t>xã Kinh Kệ - Lâm Thao - Phú Thọ</t>
+  </si>
+  <si>
+    <t>12/CN-DK</t>
+  </si>
+  <si>
+    <t>Xã Thái Đô</t>
+  </si>
+  <si>
+    <t>Thái Đô - Thái Thụy - Thái Bình</t>
+  </si>
+  <si>
+    <t>Xã Nghĩa Bình</t>
+  </si>
+  <si>
+    <t>Nghĩa Bình - Nghĩa Hưng - Nam Định</t>
+  </si>
+  <si>
+    <t>47/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>Xã Yên Bình</t>
+  </si>
+  <si>
+    <t>Yên Bình - Ý Yên Nam Định</t>
+  </si>
+  <si>
+    <t>11/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>Xã Nghĩa Trung</t>
+  </si>
+  <si>
+    <t>Xã Nghĩa Trung - Nghĩa Hưng - Nam Định</t>
+  </si>
+  <si>
+    <t>16/CN-DK</t>
+  </si>
+  <si>
+    <t>Xã Vũ Phúc - Thái Bình</t>
+  </si>
+  <si>
+    <t>Thôn Thanh Miếu - xã Vũ Phúc</t>
+  </si>
+  <si>
+    <t>10/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>Xã Nghĩa Hồng</t>
+  </si>
+  <si>
+    <t>Nghĩa Hồng - Nghĩa Hưng - Nam Định</t>
+  </si>
+  <si>
+    <t>63/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>Nghĩa Đô</t>
+  </si>
+  <si>
+    <t>Tổ 1 Nghĩa Đô, Cầu Giấy, Hà Nội</t>
+  </si>
+  <si>
+    <t>04/2019/CN-DK</t>
+  </si>
+  <si>
+    <t>Phường Đội Cấn</t>
+  </si>
+  <si>
+    <t>Đội Cấn, Ba Đình, Hà Nội</t>
+  </si>
+  <si>
+    <t>Xã Bình Khê - Đông Triều - Quảng Ninh</t>
+  </si>
+  <si>
+    <t>Bình Khê- Đông Chiều- Quảng Ninh</t>
+  </si>
+  <si>
+    <t>521/CN-DK</t>
+  </si>
+  <si>
+    <t>Phường Nguyễn Thái Học- Yên Bái</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Học - Yên Bái</t>
+  </si>
+  <si>
+    <t>60/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>Phương Tú - Ứng Hòa- Hà Nội</t>
+  </si>
+  <si>
+    <t>15/CD-DK</t>
+  </si>
+  <si>
+    <t>Phường Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc - Ba Đình -Hà nội</t>
+  </si>
+  <si>
+    <t>19/2018/CN-DK</t>
+  </si>
+  <si>
+    <t>Phường Xuân Khanh, Sơn Tây, Hà Nội</t>
+  </si>
+  <si>
+    <t>Số 20/160 đường Đá Bạc, XK, ST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,7 +578,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -394,17 +586,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -682,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1644,153 +1856,509 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
+      <c r="B42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="4">
+        <v>43199</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G42" s="5">
+        <v>191203757</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
+      <c r="B43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G43" s="5">
+        <v>191200846</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
+      <c r="B44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G44" s="5">
+        <v>191200847</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
+      <c r="B45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G45" s="5">
+        <v>191210859</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
+      <c r="B46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="4">
+        <v>43198</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G46" s="5">
+        <v>191203366</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
+      <c r="B47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="4">
+        <v>43192</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G47" s="5">
+        <v>191202730</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49">
+      <c r="B48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="4">
+        <v>43680</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F48" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G48" s="5">
+        <v>191200882</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50">
+      <c r="B49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G49" s="5">
+        <v>191203380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51">
+      <c r="B50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="4">
+        <v>43160</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G50" s="5">
+        <v>191201676</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52">
+      <c r="B51" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="4">
+        <v>43202</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G51" s="5">
+        <v>191203828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53">
+      <c r="B52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G52" s="5">
+        <v>191203414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54">
+      <c r="B53" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G53" s="5">
+        <v>191203397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55">
+      <c r="B54" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G54" s="5">
+        <v>191203425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56">
+      <c r="B55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="4">
+        <v>43198</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G55" s="5">
+        <v>191203839</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57">
+      <c r="B56" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G56" s="5">
+        <v>191213451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58">
+      <c r="B57" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G57" s="5">
+        <v>191201043</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59">
+      <c r="B58" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="4">
+        <v>43197</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G58" s="5">
+        <v>191211047</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60">
+      <c r="B59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="4">
+        <v>43193</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G59" s="5">
+        <v>191201953</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61">
+      <c r="B60" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="4">
+        <v>43233</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G60" s="5">
+        <v>191211531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62">
+      <c r="B61" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G61" s="5">
+        <v>191201082</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63">
+      <c r="B62" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="4">
+        <v>43197</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G62" s="5">
+        <v>191211102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>70</v>
+      <c r="B63" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="4">
+        <v>43198</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F63" s="4">
+        <v>44686</v>
+      </c>
+      <c r="G63" s="5">
+        <v>191201161</v>
       </c>
     </row>
   </sheetData>
